--- a/chuongtrinh/HOCONLINE/Content/file/41.xlsx
+++ b/chuongtrinh/HOCONLINE/Content/file/41.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Họ tên</t>
   </si>
@@ -41,55 +41,19 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t>phạm  hậu</t>
-  </si>
-  <si>
-    <t>5951071024@st.utc2.edu.vn</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Trần Linh</t>
-  </si>
-  <si>
-    <t>haupham404@gmail.com</t>
+    <t>lê Thị tường  VI</t>
+  </si>
+  <si>
+    <t>vi@gmail.com</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Đỗ Quốc  Tuấn</t>
-  </si>
-  <si>
-    <t>tuan@gmail.com</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng  Vương</t>
-  </si>
-  <si>
-    <t>vuong@gmail.com</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>35</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -626,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -672,82 +636,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -795,42 +690,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/chuongtrinh/HOCONLINE/Content/file/41.xlsx
+++ b/chuongtrinh/HOCONLINE/Content/file/41.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Họ tên</t>
   </si>
@@ -41,19 +41,70 @@
     <t>Điểm</t>
   </si>
   <si>
+    <t>phạm  hậu</t>
+  </si>
+  <si>
+    <t>5951071024@st.utc2.edu.vn</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Trần Linh</t>
+  </si>
+  <si>
+    <t>haupham404@gmail.com</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Đỗ Quốc  Tuấn</t>
+  </si>
+  <si>
+    <t>tuan@gmail.com</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>lê Thị tường  VI</t>
   </si>
   <si>
     <t>vi@gmail.com</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t/>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Trần Đức  Vũ</t>
+  </si>
+  <si>
+    <t>vu@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng  Vương</t>
+  </si>
+  <si>
+    <t>vuong@gmail.com</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -590,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -639,10 +690,125 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -690,42 +856,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/chuongtrinh/HOCONLINE/Content/file/41.xlsx
+++ b/chuongtrinh/HOCONLINE/Content/file/41.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Họ tên</t>
   </si>
@@ -41,70 +41,19 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t>phạm  hậu</t>
-  </si>
-  <si>
-    <t>5951071024@st.utc2.edu.vn</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Trần Linh</t>
-  </si>
-  <si>
-    <t>haupham404@gmail.com</t>
+    <t>Trần Đức  Vũ</t>
+  </si>
+  <si>
+    <t>vu@gmail.com</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Đỗ Quốc  Tuấn</t>
-  </si>
-  <si>
-    <t>tuan@gmail.com</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>lê Thị tường  VI</t>
-  </si>
-  <si>
-    <t>vi@gmail.com</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Trần Đức  Vũ</t>
-  </si>
-  <si>
-    <t>vu@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng  Vương</t>
-  </si>
-  <si>
-    <t>vuong@gmail.com</t>
-  </si>
-  <si>
-    <t>35</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -641,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -690,125 +639,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -856,42 +690,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/chuongtrinh/HOCONLINE/Content/file/41.xlsx
+++ b/chuongtrinh/HOCONLINE/Content/file/41.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
   <si>
     <t>Họ tên</t>
   </si>
@@ -41,19 +41,148 @@
     <t>Điểm</t>
   </si>
   <si>
+    <t>Nguyễn công  Hậu</t>
+  </si>
+  <si>
+    <t>hau@gmail.com</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Võ Tấn  Đào</t>
+  </si>
+  <si>
+    <t>dao@gmail.com</t>
+  </si>
+  <si>
+    <t>Hoàng đình thiên đông</t>
+  </si>
+  <si>
+    <t>dong@gmail.com</t>
+  </si>
+  <si>
+    <t>Lý thế  Hạo</t>
+  </si>
+  <si>
+    <t>hao@gmail.com</t>
+  </si>
+  <si>
+    <t>phạm  hậu</t>
+  </si>
+  <si>
+    <t>5951071024@st.utc2.edu.vn</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Trần Linh</t>
+  </si>
+  <si>
+    <t>haupham404@gmail.com</t>
+  </si>
+  <si>
+    <t>Bùi Trọng Hiếu</t>
+  </si>
+  <si>
+    <t>hieu@gmail.com</t>
+  </si>
+  <si>
+    <t>Trí linh</t>
+  </si>
+  <si>
+    <t>linh@gmail.com</t>
+  </si>
+  <si>
+    <t>Cao Đặng  Nhân</t>
+  </si>
+  <si>
+    <t>nhan@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn  Nhật</t>
+  </si>
+  <si>
+    <t>nhat@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Quang Trường</t>
+  </si>
+  <si>
+    <t>quangtruong@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Đình  Thảo</t>
+  </si>
+  <si>
+    <t>thao@gmail.com</t>
+  </si>
+  <si>
+    <t>Võ thị Diệu  Thương</t>
+  </si>
+  <si>
+    <t>Thuong@gmail.com</t>
+  </si>
+  <si>
+    <t>Đỗ Quốc  Tuấn</t>
+  </si>
+  <si>
+    <t>tuan@gmail.com</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Hoàng Huy  Tuấn</t>
+  </si>
+  <si>
+    <t>tuanhoang@gmail.com</t>
+  </si>
+  <si>
+    <t>lê Thị tường  VI</t>
+  </si>
+  <si>
+    <t>vi@gmail.com</t>
+  </si>
+  <si>
     <t>Trần Đức  Vũ</t>
   </si>
   <si>
     <t>vu@gmail.com</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t/>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng  Vương</t>
+  </si>
+  <si>
+    <t>vuong@gmail.com</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Phạm Hùy hải  Yến</t>
+  </si>
+  <si>
+    <t>yen@gmail.com</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -590,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -642,6 +771,420 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75">
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -690,42 +1233,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/chuongtrinh/HOCONLINE/Content/file/41.xlsx
+++ b/chuongtrinh/HOCONLINE/Content/file/41.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t>Họ tên</t>
   </si>
@@ -41,52 +41,67 @@
     <t>Điểm</t>
   </si>
   <si>
+    <t>Võ Tấn  Đào</t>
+  </si>
+  <si>
+    <t>dao@gmail.com</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Hoàng đình thiên đông</t>
+  </si>
+  <si>
+    <t>dong@gmail.com</t>
+  </si>
+  <si>
+    <t>Lý thế  Hạo</t>
+  </si>
+  <si>
+    <t>hao@gmail.com</t>
+  </si>
+  <si>
+    <t>phạm  hậu</t>
+  </si>
+  <si>
+    <t>5951071024@st.utc2.edu.vn</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>Nguyễn công  Hậu</t>
   </si>
   <si>
     <t>hau@gmail.com</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Võ Tấn  Đào</t>
-  </si>
-  <si>
-    <t>dao@gmail.com</t>
-  </si>
-  <si>
-    <t>Hoàng đình thiên đông</t>
-  </si>
-  <si>
-    <t>dong@gmail.com</t>
-  </si>
-  <si>
-    <t>Lý thế  Hạo</t>
-  </si>
-  <si>
-    <t>hao@gmail.com</t>
-  </si>
-  <si>
-    <t>phạm  hậu</t>
-  </si>
-  <si>
-    <t>5951071024@st.utc2.edu.vn</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>Bùi Trọng Hiếu</t>
+  </si>
+  <si>
+    <t>hieu@gmail.com</t>
+  </si>
+  <si>
+    <t>Trí linh</t>
+  </si>
+  <si>
+    <t>linh@gmail.com</t>
   </si>
   <si>
     <t>Trần Linh</t>
@@ -95,18 +110,6 @@
     <t>haupham404@gmail.com</t>
   </si>
   <si>
-    <t>Bùi Trọng Hiếu</t>
-  </si>
-  <si>
-    <t>hieu@gmail.com</t>
-  </si>
-  <si>
-    <t>Trí linh</t>
-  </si>
-  <si>
-    <t>linh@gmail.com</t>
-  </si>
-  <si>
     <t>Cao Đặng  Nhân</t>
   </si>
   <si>
@@ -119,24 +122,24 @@
     <t>nhat@gmail.com</t>
   </si>
   <si>
+    <t>Trần Đình  Thảo</t>
+  </si>
+  <si>
+    <t>thao@gmail.com</t>
+  </si>
+  <si>
+    <t>Võ thị Diệu  Thương</t>
+  </si>
+  <si>
+    <t>Thuong@gmail.com</t>
+  </si>
+  <si>
     <t>Trần Quang Trường</t>
   </si>
   <si>
     <t>quangtruong@gmail.com</t>
   </si>
   <si>
-    <t>Trần Đình  Thảo</t>
-  </si>
-  <si>
-    <t>thao@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ thị Diệu  Thương</t>
-  </si>
-  <si>
-    <t>Thuong@gmail.com</t>
-  </si>
-  <si>
     <t>Đỗ Quốc  Tuấn</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
   </si>
   <si>
     <t>vi@gmail.com</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Trần Đức  Vũ</t>
@@ -828,50 +834,50 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -891,10 +897,10 @@
     </row>
     <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -914,10 +920,10 @@
     </row>
     <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -937,10 +943,10 @@
     </row>
     <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -960,10 +966,10 @@
     </row>
     <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -983,10 +989,10 @@
     </row>
     <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1006,10 +1012,10 @@
     </row>
     <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1029,10 +1035,10 @@
     </row>
     <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1052,33 +1058,33 @@
     </row>
     <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
@@ -1098,79 +1104,79 @@
     </row>
     <row r="17" spans="1:7" ht="12.75">
       <c r="A17" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -1233,42 +1239,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/chuongtrinh/HOCONLINE/Content/file/41.xlsx
+++ b/chuongtrinh/HOCONLINE/Content/file/41.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Họ tên</t>
   </si>
@@ -41,33 +41,6 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t>Võ Tấn  Đào</t>
-  </si>
-  <si>
-    <t>dao@gmail.com</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Hoàng đình thiên đông</t>
-  </si>
-  <si>
-    <t>dong@gmail.com</t>
-  </si>
-  <si>
-    <t>Lý thế  Hạo</t>
-  </si>
-  <si>
-    <t>hao@gmail.com</t>
-  </si>
-  <si>
     <t>phạm  hậu</t>
   </si>
   <si>
@@ -77,118 +50,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>100</t>
-  </si>
-  <si>
-    <t>Nguyễn công  Hậu</t>
-  </si>
-  <si>
-    <t>hau@gmail.com</t>
-  </si>
-  <si>
-    <t>Bùi Trọng Hiếu</t>
-  </si>
-  <si>
-    <t>hieu@gmail.com</t>
-  </si>
-  <si>
-    <t>Trí linh</t>
-  </si>
-  <si>
-    <t>linh@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Linh</t>
-  </si>
-  <si>
-    <t>haupham404@gmail.com</t>
-  </si>
-  <si>
-    <t>Cao Đặng  Nhân</t>
-  </si>
-  <si>
-    <t>nhan@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn  Nhật</t>
-  </si>
-  <si>
-    <t>nhat@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Đình  Thảo</t>
-  </si>
-  <si>
-    <t>thao@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ thị Diệu  Thương</t>
-  </si>
-  <si>
-    <t>Thuong@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Quang Trường</t>
-  </si>
-  <si>
-    <t>quangtruong@gmail.com</t>
-  </si>
-  <si>
-    <t>Đỗ Quốc  Tuấn</t>
-  </si>
-  <si>
-    <t>tuan@gmail.com</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Hoàng Huy  Tuấn</t>
-  </si>
-  <si>
-    <t>tuanhoang@gmail.com</t>
-  </si>
-  <si>
-    <t>lê Thị tường  VI</t>
-  </si>
-  <si>
-    <t>vi@gmail.com</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Trần Đức  Vũ</t>
-  </si>
-  <si>
-    <t>vu@gmail.com</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng  Vương</t>
-  </si>
-  <si>
-    <t>vuong@gmail.com</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Phạm Hùy hải  Yến</t>
-  </si>
-  <si>
-    <t>yen@gmail.com</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -725,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -771,426 +636,12 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75">
-      <c r="A14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75">
-      <c r="A15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75">
-      <c r="A16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1239,42 +690,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
